--- a/Double_Slit/voltageVcounts.xlsx
+++ b/Double_Slit/voltageVcounts.xlsx
@@ -249,11 +249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="7638136"/>
-        <c:axId val="7636960"/>
+        <c:axId val="297863496"/>
+        <c:axId val="297865456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7638136"/>
+        <c:axId val="297863496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,12 +310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7636960"/>
+        <c:crossAx val="297865456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7636960"/>
+        <c:axId val="297865456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -372,7 +372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7638136"/>
+        <c:crossAx val="297863496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -585,11 +585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="274529192"/>
-        <c:axId val="274529976"/>
+        <c:axId val="297864672"/>
+        <c:axId val="297863104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="274529192"/>
+        <c:axId val="297864672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +646,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274529976"/>
+        <c:crossAx val="297863104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="274529976"/>
+        <c:axId val="297863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="274529192"/>
+        <c:crossAx val="297864672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2200,7 +2200,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2368,7 +2368,7 @@
         <v>46</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f>LOG10(B9)</f>
         <v>0.47712125471966244</v>
       </c>
       <c r="F9">
@@ -2406,7 +2406,7 @@
         <v>85</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>LOG10(B11)</f>
         <v>0.69897000433601886</v>
       </c>
       <c r="F11">
